--- a/data_and_models/Model, parameters and uncertainty.xlsx
+++ b/data_and_models/Model, parameters and uncertainty.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\OneDrive - University College London\S4CE\LCA\GSA\Geothermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified models" sheetId="8" r:id="rId1"/>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="247">
   <si>
     <t>Remarks</t>
   </si>
@@ -1157,6 +1157,30 @@
   <si>
     <t>Lognormal distribution. Scipy: Shape = 0.98; scale=0.077.</t>
   </si>
+  <si>
+    <t>0-260</t>
+  </si>
+  <si>
+    <t>0=1583</t>
+  </si>
+  <si>
+    <t>From Geothermal power database</t>
+  </si>
+  <si>
+    <t>0-</t>
+  </si>
+  <si>
+    <t>Triangular distribution, by plants name. Scipy: Shape~1.15; scale~38.80; loc=0</t>
+  </si>
+  <si>
+    <t>Triangular distribution, by fields name.Scipy: Shape~1.48; scale~65.32; loc=0</t>
+  </si>
+  <si>
+    <t>Triangular distribution, by plants name. Scipy: Shape~1.17; scale~10.01; loc=0</t>
+  </si>
+  <si>
+    <t>Triangular distribution, by fields name.Scipy: Shape~1.17; scale~12.11; loc=0</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1367,13 +1391,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,6 +1602,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,6 +1631,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1735,8 +1777,8 @@
       <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="16314965" cy="666751"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5036,7 +5078,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -38484,12 +38526,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="70"/>
     </row>
   </sheetData>
@@ -38508,72 +38550,72 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="255.28515625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="255.26953125" style="40" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="37.453125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N1" s="37"/>
     </row>
-    <row r="2" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M2" s="37"/>
       <c r="O2" s="37"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N3" s="39"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N4" s="39"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N5" s="39"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N6" s="39"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N7" s="39"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N8" s="39"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N9" s="39"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N10" s="39"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="12:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:16" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L11" s="6"/>
     </row>
-    <row r="21" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="35.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -38590,7 +38632,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -38607,7 +38649,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -38624,7 +38666,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -38641,7 +38683,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -38658,7 +38700,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -38675,7 +38717,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -38692,7 +38734,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -38709,7 +38751,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -38726,7 +38768,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -38743,7 +38785,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -38760,7 +38802,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -38777,7 +38819,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:17" x14ac:dyDescent="0.35">
       <c r="Q85" s="5"/>
     </row>
   </sheetData>
@@ -38796,22 +38838,22 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -38824,27 +38866,27 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="63.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="56.42578125" customWidth="1"/>
-    <col min="9" max="9" width="70.140625" customWidth="1"/>
-    <col min="10" max="10" width="48.5703125" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="63.26953125" customWidth="1"/>
+    <col min="6" max="6" width="58.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="56.453125" customWidth="1"/>
+    <col min="9" max="9" width="70.1796875" customWidth="1"/>
+    <col min="10" max="10" width="48.54296875" customWidth="1"/>
+    <col min="13" max="13" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
         <v>155</v>
       </c>
@@ -38865,7 +38907,7 @@
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
     </row>
-    <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
@@ -38897,14 +38939,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -38929,266 +38971,248 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="75"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="75"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E6" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H6" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N4">
-        <f>N$2/$M4</f>
+      <c r="N6">
+        <f>N$2/$M6</f>
         <v>5</v>
       </c>
-      <c r="O4">
-        <f>O$2/$M4</f>
+      <c r="O6">
+        <f>O$2/$M6</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F7" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H7" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M7" s="23">
         <v>16</v>
       </c>
-      <c r="N5">
-        <f>N$2/$M5</f>
+      <c r="N7">
+        <f>N$2/$M7</f>
         <v>1.25</v>
       </c>
-      <c r="O5">
-        <f>O$2/$M5</f>
+      <c r="O7">
+        <f>O$2/$M7</f>
         <v>8.125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E8" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H8" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="3" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H9" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D10" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E10" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F10" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G10" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H10" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I10" s="67" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>90</v>
@@ -39196,314 +39220,377 @@
       <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>116</v>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>112</v>
+        <v>174</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>90</v>
       </c>
       <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>193</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="36"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="H16" s="49"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="H18" s="49"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
       <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="36"/>
       <c r="G19" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>90</v>
       </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D23" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F23" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F24" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
     </row>
-    <row r="23" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F25" s="71"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
+      <c r="G25" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="74"/>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F22:F25"/>
+  <mergeCells count="12">
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -39520,16 +39607,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="69.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41" t="s">
         <v>156</v>
       </c>
@@ -39549,7 +39636,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -39569,7 +39656,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -39589,7 +39676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -39609,7 +39696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H6" s="22" t="s">
         <v>130</v>
       </c>
@@ -39617,7 +39704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H7" s="22" t="s">
         <v>131</v>
       </c>
@@ -39625,7 +39712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="45"/>
@@ -39637,7 +39724,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H9" s="22" t="s">
         <v>153</v>
       </c>
@@ -39645,7 +39732,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H10" s="22" t="s">
         <v>194</v>
       </c>
@@ -39653,7 +39740,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
         <v>133</v>
       </c>
@@ -39661,7 +39748,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
         <v>135</v>
       </c>
@@ -39669,7 +39756,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H13" s="22" t="s">
         <v>137</v>
       </c>
@@ -39677,7 +39764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H14" s="22" t="s">
         <v>139</v>
       </c>
@@ -39685,7 +39772,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H15" s="42" t="s">
         <v>141</v>
       </c>
@@ -39693,7 +39780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H16" s="59" t="s">
         <v>143</v>
       </c>
@@ -39701,7 +39788,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H17" s="43" t="s">
         <v>145</v>
       </c>
@@ -39709,7 +39796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18" s="42" t="s">
         <v>235</v>
       </c>
@@ -39717,7 +39804,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H19" s="42" t="s">
         <v>236</v>
       </c>
@@ -39725,7 +39812,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H20" t="s">
         <v>237</v>
       </c>
@@ -39748,56 +39835,56 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="9" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="80"/>
+      <c r="N1" s="82"/>
       <c r="O1" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="29" t="s">
         <v>29</v>
       </c>
@@ -39838,7 +39925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -39846,7 +39933,7 @@
       <c r="L3" s="32"/>
       <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -39856,16 +39943,16 @@
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -39877,21 +39964,21 @@
       <c r="J4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="83" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="28">
         <v>14</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="77"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
@@ -39901,10 +39988,10 @@
       <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="77"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="27" t="s">
         <v>44</v>
       </c>
@@ -39914,17 +40001,17 @@
       <c r="J5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="81"/>
+      <c r="K5" s="83"/>
       <c r="L5" s="28">
         <v>309</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -39934,10 +40021,10 @@
       <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="77"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="27" t="s">
         <v>46</v>
       </c>
@@ -39947,17 +40034,17 @@
       <c r="J6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="81"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
       <c r="O6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
@@ -39967,12 +40054,12 @@
       <c r="C7" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="18">
         <v>0.67</v>
       </c>
@@ -39988,15 +40075,15 @@
       <c r="L7" s="12">
         <v>0.5</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="81"/>
       <c r="O7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
@@ -40014,7 +40101,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -40061,7 +40148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -40105,7 +40192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>1</v>
       </c>
@@ -40141,7 +40228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
@@ -40188,7 +40275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
@@ -40233,7 +40320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>81</v>
       </c>
@@ -40276,7 +40363,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>7</v>
       </c>

--- a/data_and_models/Model, parameters and uncertainty.xlsx
+++ b/data_and_models/Model, parameters and uncertainty.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_37F9A21C165A320EFEBB5AAFE0436A0E83698963" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified models" sheetId="8" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Fix.Par&amp;Coeff" sheetId="5" r:id="rId5"/>
     <sheet name="Literature data" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -142,12 +143,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="249">
   <si>
     <t>Remarks</t>
   </si>
@@ -670,12 +671,6 @@
     <t>Capacity (load) factor</t>
   </si>
   <si>
-    <t>Lacirignola et al. (2013, 2014, 2017), Frick et al. (2010), Pratiwi et al. (2010)</t>
-  </si>
-  <si>
-    <t>Same as for EGS</t>
-  </si>
-  <si>
     <t>75-150</t>
   </si>
   <si>
@@ -763,9 +758,6 @@
     <t>0.5-0.8</t>
   </si>
   <si>
-    <t>80-129</t>
-  </si>
-  <si>
     <t>Karlsdottir et al.</t>
   </si>
   <si>
@@ -776,9 +768,6 @@
   </si>
   <si>
     <t>30-50</t>
-  </si>
-  <si>
-    <t>Bertani and Thain 2002, from ESMAP report</t>
   </si>
   <si>
     <t>All papers. Value from Treyer is very high.</t>
@@ -853,16 +842,7 @@
     <t>impact per unit of electric power of production working fluid</t>
   </si>
   <si>
-    <t>i4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impact per unit of thermal power of heating station </t>
-  </si>
-  <si>
     <t>i5</t>
-  </si>
-  <si>
-    <t>impact of atmospheric emissions per kg of geothermal fluid used</t>
   </si>
   <si>
     <t>impact per m3 of water for well stimulation</t>
@@ -1022,9 +1002,6 @@
     <t>i2.6</t>
   </si>
   <si>
-    <t>impact per kg of drilling waste</t>
-  </si>
-  <si>
     <t>Discrete Uniform distribution</t>
   </si>
   <si>
@@ -1143,9 +1120,6 @@
 </t>
   </si>
   <si>
-    <t>All papers. Min is equal to 660, we arbitrarily set it to 500.</t>
-  </si>
-  <si>
     <t>i5.1</t>
   </si>
   <si>
@@ -1161,15 +1135,6 @@
     <t>0-260</t>
   </si>
   <si>
-    <t>0=1583</t>
-  </si>
-  <si>
-    <t>From Geothermal power database</t>
-  </si>
-  <si>
-    <t>0-</t>
-  </si>
-  <si>
     <t>Triangular distribution, by plants name. Scipy: Shape~1.15; scale~38.80; loc=0</t>
   </si>
   <si>
@@ -1181,11 +1146,53 @@
   <si>
     <t>Triangular distribution, by fields name.Scipy: Shape~1.17; scale~12.11; loc=0</t>
   </si>
+  <si>
+    <t>impact of carbon dioxide emissions per kWh of electricity generated</t>
+  </si>
+  <si>
+    <t>Stimulation (electricity)</t>
+  </si>
+  <si>
+    <t>0-1583</t>
+  </si>
+  <si>
+    <t>From Geothermal power database. Grouped by name of plant (first) and of field (second).</t>
+  </si>
+  <si>
+    <t>75-125</t>
+  </si>
+  <si>
+    <t>Piratio</t>
+  </si>
+  <si>
+    <t>All papers but Sullivan (because value are too high)</t>
+  </si>
+  <si>
+    <t>All papers but Hondo who reports 100 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All papers. </t>
+  </si>
+  <si>
+    <t>Bertani and Thain 2002.</t>
+  </si>
+  <si>
+    <t>impact per kg of drilling waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drilling waste </t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>kg/m drilled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,7 +1287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1313,6 +1320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1419,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1560,12 +1573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,6 +1597,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1631,9 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -25872,7 +25879,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>171168</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4226092" cy="510717"/>
+    <xdr:ext cx="4431662" cy="510717"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -25880,7 +25887,7 @@
             <xdr:cNvPr id="37" name="TextBox 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25888,8 +25895,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2778312" y="6838668"/>
-              <a:ext cx="4226092" cy="510717"/>
+              <a:off x="2778312" y="6521168"/>
+              <a:ext cx="4431662" cy="510717"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26685,6 +26692,18 @@
                                 </m:r>
                               </m:sub>
                             </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
                           </m:e>
                         </m:d>
                       </m:num>
@@ -27070,8 +27089,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2778312" y="6838668"/>
-              <a:ext cx="4226092" cy="510717"/>
+              <a:off x="2778312" y="6521168"/>
+              <a:ext cx="4431662" cy="510717"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -27123,47 +27142,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑊_(𝑒,𝑒𝑛)/(𝑆𝑅_𝐸 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∙ </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(𝐷∙𝑖_(2.1,𝑗)+𝐶_𝑆∙𝑖_(2.2,𝑗)+𝐶_𝐶∙𝑖_(2.3,𝑗)+𝐷𝑀∙𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+𝑖_(2.6,𝑗) )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/([𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴_𝑃 )∙𝐿𝑇∙ 8760000]−(𝐶𝑇_𝑒𝑙∙𝐶𝑇_𝑛∙1000∙30))</a:t>
+                <a:t>𝑊_(𝑒,𝑒𝑛)/(𝑆𝑅_𝐸 )∙ (𝐷∙𝑖_(2.1,𝑗)+𝐶_𝑆∙𝑖_(2.2,𝑗)+𝐶_𝐶∙𝑖_(2.3,𝑗)+𝐷𝑀∙𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+𝑖_(2.6,𝑗))))/([𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴_𝑃 )∙𝐿𝑇∙ 8760000]−(𝐶𝑇_𝑒𝑙∙𝐶𝑇_𝑛∙1000∙30))</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -27608,15 +27591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7014882</xdr:colOff>
+      <xdr:colOff>7473950</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104274</xdr:rowOff>
+      <xdr:rowOff>104273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12292853</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>86719</xdr:rowOff>
+      <xdr:rowOff>86718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27631,8 +27614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9472145" y="190746"/>
-          <a:ext cx="363445" cy="5277971"/>
+          <a:off x="9708029" y="346694"/>
+          <a:ext cx="350745" cy="4818903"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -27671,9 +27654,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7257311</xdr:colOff>
+      <xdr:colOff>7181111</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>149284</xdr:rowOff>
+      <xdr:rowOff>111184</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5604291" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -27689,7 +27672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7257311" y="3264519"/>
+          <a:off x="7181111" y="3140134"/>
           <a:ext cx="5604291" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28032,2865 +28015,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>505113</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>29522</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4626010" cy="405432"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="505113" y="9745022"/>
-          <a:ext cx="4626010" cy="405432"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Allocation factors (electricity) - NOT USED</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>679449</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2964017" cy="475836"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="TextBox 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="7724321"/>
-              <a:ext cx="2964017" cy="475836"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐸𝑛𝑒𝑟𝑔𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>:</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> ×(1−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐴</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>[</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> ×(1−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐴</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)]+ </m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>h</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="TextBox 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="7724321"/>
-              <a:ext cx="2964017" cy="475836"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐸𝑛𝑒𝑟𝑔𝑦:𝑎= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (𝑃_(𝑛,𝑒)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  ×(1−𝐴_𝑝))/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖[𝑃〗_(𝑛,𝑒)  ×(1−𝐴_𝑝)]+ 𝑃_(𝑛,ℎ) ) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>679449</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>115471</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2759794" cy="463973"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="TextBox 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="9749328"/>
-              <a:ext cx="2759794" cy="463973"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="left"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝐶𝑎𝑟𝑛𝑜𝑡</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑒𝑓𝑓𝑖𝑐𝑖𝑒𝑛𝑐𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>: </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝐶𝐸</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=1−</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑇</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒𝑛𝑣</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑇</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="TextBox 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="9749328"/>
-              <a:ext cx="2759794" cy="463973"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐶𝑎𝑟𝑛𝑜𝑡 𝑒𝑓𝑓𝑖𝑐𝑖𝑒𝑛𝑐𝑦: 𝐶𝐸=1−𝑇_𝑒𝑛𝑣/𝑇_𝑓   </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>679449</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>96162</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4723344" cy="492764"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="TextBox 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="9022448"/>
-              <a:ext cx="4723344" cy="492764"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="left"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐸𝑐𝑜𝑛𝑜𝑚𝑖𝑐</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>:</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>/</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>3.6)×(1−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐴</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>[(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>/3.6)×</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1−</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="bg1">
-                                        <a:lumMod val="50000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="bg1">
-                                        <a:lumMod val="50000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝐴</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="bg1">
-                                        <a:lumMod val="50000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑝</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>]</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>+(</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>h</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>h</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="TextBox 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="9022448"/>
-              <a:ext cx="4723344" cy="492764"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐸𝑐𝑜𝑛𝑜𝑚𝑖𝑐:𝑎=  ((</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑃_(𝑛,𝑒)/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>3.6)×(1−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐴_𝑝)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>×𝐶_𝑒)/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖[(𝑃〗_(𝑛,𝑒)/3.6)×(1−𝐴_𝑝 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>×𝐶_𝑒]</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+(𝑃_(𝑛,ℎ)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>×𝐶_ℎ)) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>679449</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>131634</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3588675" cy="475836"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="TextBox 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="8350348"/>
-              <a:ext cx="3588675" cy="475836"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="left"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐸𝑥𝑒𝑟𝑔𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>:</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×(1−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐴</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>[</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×(1−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐴</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)]+ </m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑃</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1">
-                                    <a:lumMod val="50000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>h</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶𝐸</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="bg1">
-                                <a:lumMod val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="TextBox 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="679449" y="8350348"/>
-              <a:ext cx="3588675" cy="475836"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐸𝑥𝑒𝑟𝑔𝑦:𝑎= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (𝑃_(𝑛,𝑒)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>×(1−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐴_𝑝))/(〖[𝑃〗_(𝑛,𝑒)×(1−𝐴_𝑝)]+ 〖(𝑃〗_(𝑛,ℎ)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>×𝐶𝐸)) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>13417078</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>55128</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2652329" cy="219163"/>
+    <xdr:ext cx="3023713" cy="233077"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -30906,8 +28035,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13417078" y="4563628"/>
-              <a:ext cx="2652329" cy="219163"/>
+              <a:off x="13417078" y="4760478"/>
+              <a:ext cx="3023713" cy="233077"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -30957,7 +28086,13 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>4</m:t>
+                        <m:t>4,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑗</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -30994,7 +28129,13 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>4.1</m:t>
+                        <m:t>4.1,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑗</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -31031,7 +28172,19 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>4.2</m:t>
+                        <m:t>4.2,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑗</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -31129,7 +28282,13 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>4.3</m:t>
+                        <m:t>4.3,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑗</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -31177,8 +28336,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13417078" y="4563628"/>
-              <a:ext cx="2652329" cy="219163"/>
+              <a:off x="13417078" y="4760478"/>
+              <a:ext cx="3023713" cy="233077"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -31209,7 +28368,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑖_4=</a:t>
+                <a:t>𝑖_(4,𝑗)=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31221,13 +28380,13 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖_</a:t>
+                <a:t>𝑖_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>4.1+(𝑖_</a:t>
+                <a:t>4.1,𝑗)+(𝑖_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31239,7 +28398,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>4.2</a:t>
+                <a:t>4.2,𝑗)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31257,7 +28416,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>+(𝑖_4.3∙</a:t>
+                <a:t>+(𝑖_(4.3,𝑗)∙</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31284,7 +28443,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169937</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="17882092" cy="469680"/>
+    <xdr:ext cx="17882092" cy="479427"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -31300,8 +28459,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="215409" y="2074937"/>
-              <a:ext cx="17882092" cy="469680"/>
+              <a:off x="215409" y="2017210"/>
+              <a:ext cx="17882092" cy="479427"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -32190,6 +29349,30 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐷𝑊</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∙</m:t>
+                            </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                                 <a:solidFill>
@@ -32609,31 +29792,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>4</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
+                              <m:t>4,</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -33495,7 +30654,7 @@
             <xdr:cNvPr id="33" name="TextBox 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33503,8 +30662,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="215409" y="2074937"/>
-              <a:ext cx="17882092" cy="469680"/>
+              <a:off x="215409" y="2017210"/>
+              <a:ext cx="17882092" cy="479427"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -33561,7 +30720,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33585,7 +30744,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33609,7 +30768,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33633,7 +30792,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33657,7 +30816,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33673,7 +30832,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+ 𝑖_2.6𝑗)]+(𝑊_(𝑛𝑇−𝑒)</a:t>
+                <a:t>𝑖_(2.4,𝑗)+〖𝐷𝑊</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -33681,7 +30840,31 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖〗_(2.5,𝑗)+ 𝑖_2.6𝑗)]+(𝑊_(𝑛𝑇−𝑒)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33705,7 +30888,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33729,7 +30912,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33745,7 +30928,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖〗_(4𝑒,𝑗))+[〖𝑆𝑊〗_𝑛∙𝑆_𝑤∙(𝑖_(5.1,𝑗)+𝑆_𝑒𝑙∙𝑖_(5.2,𝑗))])/([</a:t>
+                <a:t>𝑖〗_(4,𝑗))+[〖𝑆𝑊〗_𝑛∙𝑆_𝑤∙(𝑖_(5.1,𝑗)+𝑆_𝑒𝑙∙𝑖_(5.2,𝑗))])/([</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -38519,11 +35702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:U5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38531,8 +35714,13 @@
     <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38542,12 +35730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38830,12 +36018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38845,17 +36033,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -38864,12 +36052,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38881,36 +36069,36 @@
     <col min="6" max="6" width="58.26953125" customWidth="1"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
     <col min="8" max="8" width="56.453125" customWidth="1"/>
-    <col min="9" max="9" width="70.1796875" customWidth="1"/>
+    <col min="9" max="9" width="55.54296875" customWidth="1"/>
     <col min="10" max="10" width="48.54296875" customWidth="1"/>
     <col min="13" max="13" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="53" t="s">
         <v>12</v>
       </c>
@@ -38930,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N2">
         <v>20</v>
@@ -38940,76 +36128,74 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>167</v>
+      <c r="C3" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="H3" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>242</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="69"/>
       <c r="H4" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="85"/>
+        <v>232</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="75"/>
+        <v>234</v>
+      </c>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -39019,28 +36205,28 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N6">
         <f>N$2/$M6</f>
@@ -39059,25 +36245,25 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>232</v>
+        <v>218</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>224</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M7" s="23">
         <v>16</v>
@@ -39096,28 +36282,28 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -39125,51 +36311,51 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="50"/>
       <c r="F9" s="48"/>
       <c r="G9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="65" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -39180,25 +36366,25 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -39209,54 +36395,54 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -39267,25 +36453,25 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -39293,28 +36479,28 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -39325,25 +36511,25 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
@@ -39351,19 +36537,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="51"/>
@@ -39380,198 +36566,201 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
-        <v>106</v>
-      </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="52"/>
       <c r="F19" s="36"/>
       <c r="G19" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="52"/>
       <c r="F20" s="36"/>
       <c r="G20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
         <v>108</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+        <v>212</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+        <v>195</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F25" s="71"/>
+        <v>217</v>
+      </c>
+      <c r="F25" s="70"/>
       <c r="G25" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>231</v>
+        <v>217</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="71"/>
+        <v>216</v>
+      </c>
+      <c r="F26" s="70"/>
       <c r="G26" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I26" s="74"/>
+        <v>216</v>
+      </c>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+        <v>215</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -39599,12 +36788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39618,98 +36807,110 @@
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="44">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D4" s="44">
         <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D5">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6">
+        <v>450</v>
+      </c>
       <c r="H6" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H7" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -39718,106 +36919,98 @@
       <c r="C8" s="45"/>
       <c r="D8" s="46"/>
       <c r="H8" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H9" s="22" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H10" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H13" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H14" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H15" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H16" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>144</v>
+      <c r="H16" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H17" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>147</v>
+      <c r="H17" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H19" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H20" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" t="s">
-        <v>146</v>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -39827,12 +37020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39854,37 +37047,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="82"/>
+      <c r="N1" s="81"/>
       <c r="O1" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="29" t="s">
         <v>29</v>
       </c>
@@ -39943,16 +37136,16 @@
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="78" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -39964,16 +37157,16 @@
       <c r="J4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="82" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="28">
         <v>14</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="79"/>
+      <c r="N4" s="78"/>
       <c r="O4" s="1">
         <v>7.2</v>
       </c>
@@ -39988,10 +37181,10 @@
       <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="79"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="27" t="s">
         <v>44</v>
       </c>
@@ -40001,12 +37194,12 @@
       <c r="J5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="83"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="28">
         <v>309</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
       <c r="O5" s="1" t="s">
         <v>57</v>
       </c>
@@ -40021,10 +37214,10 @@
       <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="27" t="s">
         <v>46</v>
       </c>
@@ -40034,12 +37227,12 @@
       <c r="J6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="83"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
       <c r="O6" s="1" t="s">
         <v>56</v>
       </c>
@@ -40054,12 +37247,12 @@
       <c r="C7" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="79"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="18">
         <v>0.67</v>
       </c>
@@ -40075,10 +37268,10 @@
       <c r="L7" s="12">
         <v>0.5</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="81"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="1">
         <v>0.5</v>
       </c>
@@ -40207,7 +37400,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>69</v>

--- a/data_and_models/Model, parameters and uncertainty.xlsx
+++ b/data_and_models/Model, parameters and uncertainty.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_37F9A21C165A320EFEBB5AAFE0436A0E83698963" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified models" sheetId="8" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Fix.Par&amp;Coeff" sheetId="5" r:id="rId5"/>
     <sheet name="Literature data" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,12 +142,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="J9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="248">
   <si>
     <t>Remarks</t>
   </si>
@@ -990,9 +989,6 @@
     <t>3000-14000</t>
   </si>
   <si>
-    <t>Diesel (as electrical energy)</t>
-  </si>
-  <si>
     <t>0.004-0.740</t>
   </si>
   <si>
@@ -1192,7 +1188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -35702,24 +35698,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U5"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="255.5703125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
     </row>
   </sheetData>
@@ -35730,7 +35726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
@@ -35738,72 +35734,72 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="255.26953125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="255.5703125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="255.28515625" style="40" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N1" s="37"/>
     </row>
-    <row r="2" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M2" s="37"/>
       <c r="O2" s="37"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N3" s="39"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N4" s="39"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N5" s="39"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N6" s="39"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N7" s="39"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N8" s="39"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N9" s="39"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
       <c r="N10" s="39"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="12:16" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="12:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L11" s="6"/>
     </row>
-    <row r="21" ht="35.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -35820,7 +35816,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -35837,7 +35833,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -35854,7 +35850,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -35871,7 +35867,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -35888,7 +35884,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -35905,7 +35901,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -35922,7 +35918,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -35939,7 +35935,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -35956,7 +35952,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -35973,7 +35969,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -35990,7 +35986,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -36007,7 +36003,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="85" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q85" s="5"/>
     </row>
   </sheetData>
@@ -36018,7 +36014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -36026,24 +36022,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -36052,29 +36048,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="63.26953125" customWidth="1"/>
-    <col min="6" max="6" width="58.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="56.453125" customWidth="1"/>
-    <col min="9" max="9" width="55.54296875" customWidth="1"/>
-    <col min="10" max="10" width="48.54296875" customWidth="1"/>
-    <col min="13" max="13" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1"/>
+    <col min="9" max="9" width="55.5703125" customWidth="1"/>
+    <col min="10" max="10" width="48.5703125" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>148</v>
       </c>
@@ -36095,7 +36091,7 @@
       <c r="H1" s="71"/>
       <c r="I1" s="71"/>
     </row>
-    <row r="2" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -36127,7 +36123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
@@ -36144,7 +36140,7 @@
         <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>90</v>
@@ -36153,51 +36149,51 @@
         <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>231</v>
-      </c>
       <c r="F4" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="74"/>
       <c r="G5" s="69"/>
       <c r="H5" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I5" s="74"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -36237,7 +36233,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -36251,16 +36247,16 @@
         <v>85</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I7" t="s">
         <v>86</v>
@@ -36277,7 +36273,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -36294,7 +36290,7 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
@@ -36303,10 +36299,10 @@
         <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -36323,13 +36319,13 @@
         <v>98</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>172</v>
       </c>
@@ -36340,25 +36336,25 @@
         <v>175</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -36375,19 +36371,19 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -36398,7 +36394,7 @@
         <v>166</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>88</v>
@@ -36416,9 +36412,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>181</v>
@@ -36445,7 +36441,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -36453,7 +36449,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>114</v>
@@ -36474,7 +36470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -36503,7 +36499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -36532,30 +36528,30 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
         <v>170</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="51"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -36564,7 +36560,7 @@
       <c r="F18" s="56"/>
       <c r="H18" s="49"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
@@ -36590,7 +36586,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>103</v>
       </c>
@@ -36598,7 +36594,7 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="52"/>
@@ -36613,7 +36609,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>176</v>
       </c>
@@ -36633,134 +36629,134 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="49" t="s">
         <v>211</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>212</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="70"/>
       <c r="G25" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F26" s="70"/>
       <c r="G26" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I26" s="73"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F27" s="70"/>
       <c r="G27" s="59"/>
       <c r="H27" s="59"/>
       <c r="I27" s="59"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -36788,24 +36784,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="69.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>149</v>
       </c>
@@ -36825,7 +36821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -36845,7 +36841,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -36865,7 +36861,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -36885,15 +36881,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
         <v>246</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" t="s">
-        <v>248</v>
       </c>
       <c r="D6">
         <v>450</v>
@@ -36905,7 +36901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" s="22" t="s">
         <v>127</v>
       </c>
@@ -36913,7 +36909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="45"/>
@@ -36925,23 +36921,23 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="22" t="s">
         <v>146</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H10" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>129</v>
       </c>
@@ -36949,7 +36945,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>131</v>
       </c>
@@ -36957,7 +36953,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H13" s="22" t="s">
         <v>133</v>
       </c>
@@ -36965,7 +36961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H14" s="22" t="s">
         <v>135</v>
       </c>
@@ -36973,7 +36969,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="42" t="s">
         <v>137</v>
       </c>
@@ -36981,7 +36977,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="43" t="s">
         <v>139</v>
       </c>
@@ -36989,28 +36985,28 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I18" s="42" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H18" s="42" t="s">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H19" t="s">
-        <v>228</v>
-      </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -37020,7 +37016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -37028,25 +37024,25 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
-    <col min="8" max="9" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>79</v>
       </c>
@@ -37075,7 +37071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="29" t="s">
@@ -37118,7 +37114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -37126,7 +37122,7 @@
       <c r="L3" s="32"/>
       <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -37171,7 +37167,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
@@ -37204,7 +37200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -37237,7 +37233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
@@ -37276,7 +37272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
@@ -37294,7 +37290,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -37341,7 +37337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -37385,7 +37381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>1</v>
       </c>
@@ -37421,7 +37417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
@@ -37468,7 +37464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
@@ -37513,7 +37509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>81</v>
       </c>
@@ -37556,7 +37552,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>7</v>
       </c>

--- a/data_and_models/Model, parameters and uncertainty.xlsx
+++ b/data_and_models/Model, parameters and uncertainty.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified models" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Fix.Par&amp;Coeff" sheetId="5" r:id="rId5"/>
     <sheet name="Literature data" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="249">
   <si>
     <t>Remarks</t>
   </si>
@@ -1184,6 +1184,10 @@
   <si>
     <t>kg/m drilled</t>
   </si>
+  <si>
+    <t>Triangular (forcing loc = 0). Scale = 100; c=1.
+Triancular. Scipy: Loc= -30.9; Scale= 130.9; c=1.</t>
+  </si>
 </sst>
 </file>
 
@@ -6059,8 +6063,8 @@
       <xdr:rowOff>9712</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="545406" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -6185,7 +6189,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -6261,9 +6265,9 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="14433551" cy="681084"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="14690538" cy="681084"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -6278,7 +6282,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2778312" y="3495675"/>
-              <a:ext cx="14433551" cy="681084"/>
+              <a:ext cx="14690538" cy="681084"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9480,7 +9484,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -9495,7 +9499,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2778312" y="3495675"/>
-              <a:ext cx="14433551" cy="681084"/>
+              <a:ext cx="14690538" cy="681084"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9557,7 +9561,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9569,23 +9573,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑃_(𝑛,𝑒)/(𝑃𝑊_(𝑛,𝑒) )∙((PI_ratio+1)/(PI_ratio∙SR_PI )  + (𝐷_𝑖∙𝐿𝑇)/(𝑆𝑅_𝑀 ))∙[𝑊_𝑑∙(𝐷∙𝑖_(2.1,𝑗)+𝐶_𝑆∙𝑖_(2.2,𝑗)+𝐶_𝐶∙𝑖_(2.3,𝑗)+𝐷𝑀∙𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+𝑖_(2.6,𝑗) )+𝑖_1+(𝐶𝑃∙𝑖_(3,𝑗) )]  +[ 𝑊_𝑑∙𝑊_(𝑒,𝑒𝑛)/(𝑆𝑅_𝐸 )∙  (𝐷∙𝑖_(2.1,𝑗)+𝐶_𝑆∙𝑖_(2.2,𝑗)+𝐶_𝐶∙𝑖_(2.3,𝑗)+𝐷𝑀∙𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+𝑖_(2.6,𝑗) )]+(𝑊_(𝑒,𝑒𝑛)/(𝑆𝑅_𝐸 )∙ 𝑖_1 )+〖[𝑃〗_𝑛𝑒∙〖(𝑖〗_(4.1,𝑗)+𝑖_(4.2,𝑗)∙𝐶𝑇_𝑛) ])/([𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴_𝑃 )∙𝐿𝑇∙ 8760000]−(𝐶𝑇_𝑒𝑙∙𝐶𝑇_𝑛∙1000∙30))</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>   </a:t>
+                <a:t>𝑃_(𝑛,𝑒)/(𝑃𝑊_(𝑛,𝑒) )∙((PI_ratio+1)/(PI_ratio∙SR_PI )  + (𝐷_𝑖∙𝐿𝑇)/(𝑆𝑅_𝑀 ))∙[𝑊_𝑑∙(𝐷∙𝑖_(2.1,𝑗)+𝐶_𝑆∙𝑖_(2.2,𝑗)+𝐶_𝐶∙𝑖_(2.3,𝑗)+𝐷𝑀∙𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+𝑖_(2.6,𝑗) )+𝑖_1+(𝐶𝑃∙𝑖_(3,𝑗) )]  +[ 𝑊_𝑑∙𝑊_(𝑒,𝑒𝑛)/(𝑆𝑅_𝐸 )∙  (𝐷∙𝑖_(2.1,𝑗)+𝐶_𝑆∙𝑖_(2.2,𝑗)+𝐶_𝐶∙𝑖_(2.3,𝑗)+𝐷𝑀∙𝑖_(2.4,𝑗)+𝑖_(2.5,𝑗)+𝑖_(2.6,𝑗) )]+(𝑊_(𝑒,𝑒𝑛)/(𝑆𝑅_𝐸 )∙ 𝑖_1 )+〖[𝑃〗_𝑛𝑒∙〖(𝑖〗_(4.1,𝑗)+𝑖_(4.2,𝑗)∙𝐶𝑇_𝑛) ])/([𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴_𝑃 )∙𝐿𝑇∙ 8760000]−(𝐶𝑇_𝑒𝑙∙𝐶𝑇_𝑛∙1000∙30))   </a:t>
               </a:r>
               <a:endParaRPr lang="en-GB">
                 <a:effectLst/>
@@ -24689,8 +24681,8 @@
       <xdr:rowOff>142972</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1261307" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -24704,7 +24696,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4795802" y="14049472"/>
+              <a:off x="4795802" y="14620972"/>
               <a:ext cx="1261307" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -24937,15 +24929,21 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="TextBox 39"/>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4795802" y="14049472"/>
+              <a:off x="4795802" y="14620972"/>
               <a:ext cx="1261307" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -24998,7 +24996,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -35701,8 +35699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36052,8 +36050,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36677,7 +36675,7 @@
         <v>209</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F25" s="70"/>
       <c r="G25" s="5" t="s">

--- a/data_and_models/Model, parameters and uncertainty.xlsx
+++ b/data_and_models/Model, parameters and uncertainty.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified models" sheetId="8" r:id="rId1"/>
@@ -6063,8 +6063,8 @@
       <xdr:rowOff>9712</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="545406" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -6189,7 +6189,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -6266,8 +6266,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="14690538" cy="681084"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -9484,7 +9484,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -24681,8 +24681,8 @@
       <xdr:rowOff>142972</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1261307" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -24929,7 +24929,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -28437,9 +28437,9 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169937</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="17882092" cy="479427"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="17882092" cy="502382"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -28453,8 +28453,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="215409" y="2017210"/>
-              <a:ext cx="17882092" cy="479427"/>
+              <a:off x="215409" y="2074937"/>
+              <a:ext cx="17882092" cy="502382"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -28659,7 +28659,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>(</m:t>
+                              <m:t>[(</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -28685,7 +28685,19 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑛𝑇</m:t>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -28699,6 +28711,430 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑊</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑒𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)∙</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑗</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>[</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑊</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> ∙</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑊</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑊</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑒𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
                           <m:t>∙</m:t>
                         </m:r>
                         <m:sSub>
@@ -28740,7 +29176,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>1,</m:t>
+                              <m:t>2.1,</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -28766,7 +29202,7 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>)+</m:t>
+                          <m:t>+</m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -28793,19 +29229,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>[</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑊</m:t>
+                              <m:t>𝐶</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -28819,62 +29243,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> ∙</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑊</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛𝑇</m:t>
+                              <m:t>𝑆</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -28890,42 +29259,6 @@
                           </a:rPr>
                           <m:t>∙</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐷</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∙</m:t>
-                        </m:r>
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
@@ -28965,7 +29298,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>2.1,</m:t>
+                              <m:t>2.2,</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -29032,7 +29365,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑆</m:t>
+                              <m:t>𝐶</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -29087,7 +29420,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>2.2,</m:t>
+                              <m:t>2.3,</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -29115,49 +29448,18 @@
                           </a:rPr>
                           <m:t>+</m:t>
                         </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐶</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑀</m:t>
+                        </m:r>
                         <m:r>
                           <a:rPr lang="en-GB" sz="1100" b="0" i="1">
                             <a:solidFill>
@@ -29209,7 +29511,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>2.3,</m:t>
+                              <m:t>2.4,</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -29237,30 +29539,6 @@
                           </a:rPr>
                           <m:t>+</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐷𝑀</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∙</m:t>
-                        </m:r>
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
@@ -29276,6 +29554,30 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐷𝑊</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∙</m:t>
+                            </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                                 <a:solidFill>
@@ -29300,7 +29602,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>2.4,</m:t>
+                              <m:t>2.5,</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -29326,7 +29628,7 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>+</m:t>
+                          <m:t>+ </m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -29343,30 +29645,6 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐷𝑊</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>∙</m:t>
-                            </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                                 <a:solidFill>
@@ -29391,7 +29669,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>2.5,</m:t>
+                              <m:t>2.6</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1400" b="0" i="1">
@@ -29417,73 +29695,6 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>+ </m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2.6</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑗</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>)]+(</m:t>
                         </m:r>
                         <m:sSub>
@@ -29525,31 +29736,7 @@
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑛𝑇</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
+                              <m:t>𝑛</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -30257,49 +30444,18 @@
                               </a:rPr>
                               <m:t>1−</m:t>
                             </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝐴</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑃</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐴𝑃</m:t>
+                            </m:r>
                           </m:e>
                         </m:d>
                         <m:r>
@@ -30470,7 +30626,31 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>∙1000∙30)</m:t>
+                          <m:t>∙1000∙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐿𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -30642,7 +30822,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -30656,8 +30836,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="215409" y="2017210"/>
-              <a:ext cx="17882092" cy="479427"/>
+              <a:off x="215409" y="2074937"/>
+              <a:ext cx="17882092" cy="502382"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -30706,7 +30886,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> (〖(𝑊〗_𝑛𝑇∙𝑖_(1,𝑗))+〖[𝑊〗_𝑑  ∙𝑊_𝑛𝑇</a:t>
+                <a:t> (〖[(𝑊〗_(𝑛 )+𝑊_(𝐸,𝑒𝑛))∙(𝑖_(1,𝑗) )+〖[𝑊〗_𝑑  ∙〖(𝑊〗_𝑛+𝑊_(𝐸,𝑒𝑛))</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -30850,7 +31030,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖〗_(2.5,𝑗)+ 𝑖_2.6𝑗)]+(𝑊_(𝑛𝑇−𝑒)</a:t>
+                <a:t>𝑖〗_(2.5,𝑗)+ 𝑖_2.6𝑗)]+(𝑊_𝑛</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -30934,7 +31114,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴_𝑃 )∙𝐿𝑇∙ 8760000]−(</a:t>
+                <a:t>𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴𝑃)∙𝐿𝑇∙ 8760000]−(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -30958,7 +31138,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∙1000∙30)) </a:t>
+                <a:t>∙1000∙𝐿𝑇)) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31563,13 +31743,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13417078</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>189108</xdr:rowOff>
+      <xdr:colOff>13444292</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121074</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4003275" cy="225190"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3914405" cy="336246"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -31583,8 +31763,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13417078" y="5852153"/>
-              <a:ext cx="4003275" cy="225190"/>
+              <a:off x="13444292" y="7305645"/>
+              <a:ext cx="3914405" cy="336246"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -31689,45 +31869,89 @@
                     <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=  </m:t>
+                    <m:t>= </m:t>
                   </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
+                  <m:f>
+                    <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑊</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐸</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>, </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:num>
+                    <m:den>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>𝑊</m:t>
+                        <m:t>𝑆</m:t>
                       </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐸</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>, </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑛</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑅</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐸</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:den>
+                  </m:f>
                   <m:r>
                     <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -31742,13 +31966,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFC5192-8EC0-491B-98D4-FF21664B1B72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31756,8 +31980,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13417078" y="5852153"/>
-              <a:ext cx="4003275" cy="225190"/>
+              <a:off x="13444292" y="7305645"/>
+              <a:ext cx="3914405" cy="336246"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -31809,7 +32033,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑊_(𝐸,𝑒𝑛)=  𝑊_(𝐸, 𝑛)</a:t>
+                <a:t>𝑊_(𝐸,𝑒𝑛)=  𝑊_(𝐸, 𝑛)/(𝑆𝑅_𝐸 )</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -32319,8 +32543,8 @@
       <xdr:rowOff>184945</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4936021" cy="274498"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -32405,7 +32629,7 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>𝑛𝑇</m:t>
+                        <m:t>𝑛</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -32636,13 +32860,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32696,7 +32920,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>: 𝑊_𝑛𝑇=  𝑊_(𝑃, 𝑛)  [ 1+1⁄</a:t>
+                <a:t>: 𝑊_𝑛=  𝑊_(𝑃, 𝑛)  [ 1+1⁄</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -32797,8 +33021,8 @@
       <xdr:rowOff>60933</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4545341" cy="486458"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48">
@@ -32883,7 +33107,7 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>𝑛𝑇</m:t>
+                        <m:t>𝑛</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -33199,137 +33423,6 @@
                       </m:f>
                     </m:e>
                   </m:d>
-                  <m:r>
-                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>+ </m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑊</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝐸</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>,</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑒𝑛</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:num>
-                    <m:den>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑆𝑅</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝐸</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:den>
-                  </m:f>
                 </m:oMath>
               </a14:m>
               <a:r>
@@ -33340,13 +33433,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33400,7 +33493,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>: 𝑊_𝑛𝑇=  𝑊_(𝑃, 𝑛) ((1+ </a:t>
+                <a:t>: 𝑊_𝑛=  𝑊_(𝑃, 𝑛) ((1+ </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -33474,49 +33567,6 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>〖𝑆𝑅〗_𝑀 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>+ </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑊_(𝐸,𝑒𝑛)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑆𝑅〗_𝐸 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400"/>
@@ -33656,331 +33706,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323896</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>178346</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3669338" cy="336246"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="TextBox 59">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="323896" y="7893596"/>
-              <a:ext cx="3669338" cy="336246"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>Total</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="1" baseline="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> number w/o expl</a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>: </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-GB" sz="1400" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑊</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑛𝑇</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>−</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑒</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=  </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑊</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑛𝑇</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>−</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑊</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝐸</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>,</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑒𝑛</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑆</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑅</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝐸</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:den>
-                  </m:f>
-                  <m:r>
-                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="TextBox 59">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="323896" y="7893596"/>
-              <a:ext cx="3669338" cy="336246"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>Total</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="1" baseline="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> number w/o expl</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>: 𝑊_(𝑛𝑇−𝑒)=  𝑊_(𝑛𝑇,)−𝑊_(𝐸,𝑒𝑛)/(𝑆𝑅_𝐸 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>6761512</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>55253</xdr:rowOff>
@@ -34052,8 +33777,8 @@
       <xdr:rowOff>126471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3464143" cy="377794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -34138,7 +33863,7 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>𝑛𝑇</m:t>
+                        <m:t>𝑛</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -34241,13 +33966,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34301,7 +34026,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>: 𝑊_𝑛𝑇=  𝑊_(𝑃𝐼, 𝑛)</a:t>
+                <a:t>: 𝑊_𝑛=  𝑊_(𝑃𝐼, 𝑛)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -34321,9 +34046,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7148488</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164119</xdr:rowOff>
+      <xdr:colOff>13244488</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109690</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1860509" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -34339,7 +34064,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7148488" y="5632590"/>
+          <a:off x="13244488" y="6899654"/>
           <a:ext cx="1860509" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35069,19 +34794,85 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7211654</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>40015</xdr:rowOff>
+      <xdr:colOff>13239750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3677995" cy="336246"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2188484" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="6000749"/>
+          <a:ext cx="2188484" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>Without</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0"/>
+            <a:t> s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>uccess rate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13447012</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151009</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3963714" cy="225190"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="TextBox 47">
+            <xdr:cNvPr id="54" name="TextBox 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35089,8 +34880,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7211654" y="6337098"/>
-              <a:ext cx="3677995" cy="336246"/>
+              <a:off x="13447012" y="6559973"/>
+              <a:ext cx="3963714" cy="225190"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -35122,22 +34913,37 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>Total</a:t>
+                <a:t>Equivalent</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="1" baseline="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> number w/o expl</a:t>
+                <a:t> exploratory</a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
                     <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>: </m:t>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑤𝑒𝑙𝑙𝑠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> : </m:t>
                   </m:r>
                   <m:sSub>
                     <m:sSubPr>
@@ -35160,19 +34966,19 @@
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>𝑛𝑇</m:t>
+                        <m:t>𝐸</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>−</m:t>
+                        <m:t>,</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>𝑒</m:t>
+                        <m:t>𝑒𝑛</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -35180,20 +34986,32 @@
                     <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=  </m:t>
+                    <m:t>= </m:t>
                   </m:r>
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSubPr>
                     <m:e>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                         <m:t>𝑊</m:t>
                       </m:r>
@@ -35201,19 +35019,37 @@
                     <m:sub>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑇</m:t>
+                        <m:t>𝐸</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                         <m:t>, </m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                         <m:t>𝑛</m:t>
                       </m:r>
@@ -35222,96 +35058,9 @@
                   <m:r>
                     <a:rPr lang="en-GB" sz="1400" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>−</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑊</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝐸</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>, </m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑒𝑛</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑆</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑅</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝐸</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:den>
-                  </m:f>
-                  <m:r>
-                    <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t> </m:t>
+                    <m:t>×0.3 </m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -35320,13 +35069,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="TextBox 47">
+            <xdr:cNvPr id="54" name="TextBox 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35334,8 +35083,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7211654" y="6337098"/>
-              <a:ext cx="3677995" cy="336246"/>
+              <a:off x="13447012" y="6559973"/>
+              <a:ext cx="3963714" cy="225190"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -35367,27 +35116,46 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>Total</a:t>
+                <a:t>Equivalent</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="1" baseline="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> number w/o expl</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>: 𝑊_(𝑛𝑇−𝑒)=  𝑊_(𝑇, 𝑛)−𝑊_(𝐸, 𝑒𝑛)/(𝑆𝑅_𝐸 )</a:t>
+                <a:t> exploratory</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>  </a:t>
+                <a:t> 𝑤𝑒𝑙𝑙𝑠 : </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊_(𝐸,𝑒𝑛)= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊_(𝐸, 𝑛)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×0.3 </a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1400"/>
             </a:p>
@@ -35395,6 +35163,64 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6912428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1860509" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6912428" y="5660571"/>
+          <a:ext cx="1860509" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>With success rate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -35699,7 +35525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -35728,8 +35554,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_and_models/Model, parameters and uncertainty.xlsx
+++ b/data_and_models/Model, parameters and uncertainty.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_855F799390F29E0296DE066A4BE9742CA00E7F45" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0FB8D7A2-DFBB-48D7-83D1-B83867EF8A66}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simplified models" sheetId="8" r:id="rId1"/>
+    <sheet name="Simplified models_old" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="Parametric model" sheetId="3" r:id="rId2"/>
     <sheet name="Assumptions" sheetId="7" r:id="rId3"/>
     <sheet name="Uncertainty ranges" sheetId="1" r:id="rId4"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -142,12 +143,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -27648,11 +27649,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7181111</xdr:colOff>
+      <xdr:colOff>8589657</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>111184</xdr:rowOff>
+      <xdr:rowOff>134275</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5604291" cy="311496"/>
+    <xdr:ext cx="2513637" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12">
@@ -27666,8 +27667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181111" y="3140134"/>
-          <a:ext cx="5604291" cy="311496"/>
+          <a:off x="8589657" y="3170730"/>
+          <a:ext cx="2513637" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27700,7 +27701,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" b="1" baseline="0"/>
-            <a:t> generated (- electricity consumed by cooling towers)</a:t>
+            <a:t> generated </a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400" b="1"/>
         </a:p>
@@ -28996,6 +28997,30 @@
                               </a:rPr>
                               <m:t>𝑛</m:t>
                             </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑆𝑅</m:t>
+                            </m:r>
                           </m:sub>
                         </m:sSub>
                         <m:r>
@@ -29074,6 +29099,30 @@
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                               <m:t>𝑒𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑆𝑅</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -30492,165 +30541,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>∙ 8760000]−(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑇</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑒𝑙</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∙</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑇</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∙1000∙</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐿𝑇</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
+                          <m:t>∙ 8760000]</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -30886,7 +30777,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> (〖[(𝑊〗_(𝑛 )+𝑊_(𝐸,𝑒𝑛))∙(𝑖_(1,𝑗) )+〖[𝑊〗_𝑑  ∙〖(𝑊〗_𝑛+𝑊_(𝐸,𝑒𝑛))</a:t>
+                <a:t> (〖[(𝑊〗_(𝑛 )+𝑊_(𝐸,𝑒𝑛))∙(𝑖_(1,𝑗) )+〖[𝑊〗_𝑑  ∙〖(𝑊〗_(𝑛,𝑆𝑅)+𝑊_(𝐸,𝑒𝑛,𝑆𝑅))</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -31114,19 +31005,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴𝑃)∙𝐿𝑇∙ 8760000]−(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐶𝑇_𝑒𝑙∙𝐶𝑇_𝑛</a:t>
+                <a:t>𝑃_(𝑛,𝑒)∙𝐶𝐹∙(1−𝐴𝑃)∙𝐿𝑇∙ 8760000]</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31138,7 +31017,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∙1000∙𝐿𝑇)) </a:t>
+                <a:t>) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -31748,8 +31627,8 @@
       <xdr:rowOff>121074</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3914405" cy="336246"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -31966,7 +31845,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -32543,8 +32422,8 @@
       <xdr:rowOff>184945</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4936021" cy="274498"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -32860,7 +32739,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -33036,7 +32915,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="364362" y="7669727"/>
+              <a:off x="364362" y="7519297"/>
               <a:ext cx="4545341" cy="486458"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -33108,6 +32987,18 @@
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>𝑛</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆𝑅</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -33447,7 +33338,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="364362" y="7669727"/>
+              <a:off x="364362" y="7519297"/>
               <a:ext cx="4545341" cy="486458"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -33493,7 +33384,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>: 𝑊_𝑛=  𝑊_(𝑃, 𝑛) ((1+ </a:t>
+                <a:t>: 𝑊_(𝑛,𝑆𝑅)=  𝑊_(𝑃, 𝑛) ((1+ </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -33777,8 +33668,8 @@
       <xdr:rowOff>126471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3464143" cy="377794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -33966,7 +33857,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -34804,7 +34695,7 @@
         <xdr:cNvPr id="51" name="TextBox 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34864,7 +34755,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>151009</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3963714" cy="225190"/>
+    <xdr:ext cx="4153125" cy="225190"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -34872,7 +34763,7 @@
             <xdr:cNvPr id="54" name="TextBox 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34880,8 +34771,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13447012" y="6559973"/>
-              <a:ext cx="3963714" cy="225190"/>
+              <a:off x="13447012" y="6397100"/>
+              <a:ext cx="4153125" cy="225190"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -34980,6 +34871,18 @@
                         </a:rPr>
                         <m:t>𝑒𝑛</m:t>
                       </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-GB" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆𝑅</m:t>
+                      </m:r>
                     </m:sub>
                   </m:sSub>
                   <m:r>
@@ -34996,7 +34899,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -35009,7 +34912,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -35023,7 +34926,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -35035,7 +34938,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -35047,7 +34950,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -35075,7 +34978,7 @@
             <xdr:cNvPr id="54" name="TextBox 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35083,8 +34986,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13447012" y="6559973"/>
-              <a:ext cx="3963714" cy="225190"/>
+              <a:off x="13447012" y="6397100"/>
+              <a:ext cx="4153125" cy="225190"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -35136,7 +35039,7 @@
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑊_(𝐸,𝑒𝑛)= </a:t>
+                <a:t>𝑊_(𝐸,𝑒𝑛,𝑆𝑅)= </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1400" b="0" i="0">
@@ -35144,7 +35047,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -35178,7 +35081,7 @@
         <xdr:cNvPr id="55" name="TextBox 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35522,24 +35425,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="U2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="68"/>
     </row>
   </sheetData>
@@ -35550,80 +35453,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="255.28515625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="255.26953125" style="40" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="37.453125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N1" s="37"/>
     </row>
-    <row r="2" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M2" s="37"/>
       <c r="O2" s="37"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N3" s="39"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N4" s="39"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N5" s="39"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N6" s="39"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N7" s="39"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N8" s="39"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N9" s="39"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:16" x14ac:dyDescent="0.35">
       <c r="N10" s="39"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="12:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:16" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L11" s="6"/>
     </row>
-    <row r="21" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="35.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -35640,7 +35543,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -35657,7 +35560,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -35674,7 +35577,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -35691,7 +35594,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -35708,7 +35611,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -35725,7 +35628,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -35742,7 +35645,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -35759,7 +35662,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -35776,7 +35679,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -35793,7 +35696,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -35810,7 +35713,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="3:17" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" s="40" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -35827,7 +35730,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:17" x14ac:dyDescent="0.35">
       <c r="Q85" s="5"/>
     </row>
   </sheetData>
@@ -35838,7 +35741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -35846,22 +35749,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -35872,7 +35775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -35880,21 +35783,21 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="63.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="56.42578125" customWidth="1"/>
-    <col min="9" max="9" width="55.5703125" customWidth="1"/>
-    <col min="10" max="10" width="48.5703125" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="63.26953125" customWidth="1"/>
+    <col min="6" max="6" width="58.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="56.453125" customWidth="1"/>
+    <col min="9" max="9" width="55.54296875" customWidth="1"/>
+    <col min="10" max="10" width="48.54296875" customWidth="1"/>
+    <col min="13" max="13" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>148</v>
       </c>
@@ -35915,7 +35818,7 @@
       <c r="H1" s="71"/>
       <c r="I1" s="71"/>
     </row>
-    <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -35947,7 +35850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
@@ -35979,7 +35882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -36000,7 +35903,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -36017,7 +35920,7 @@
       </c>
       <c r="I5" s="74"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -36057,7 +35960,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -36097,7 +36000,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -36126,7 +36029,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -36149,7 +36052,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>172</v>
       </c>
@@ -36178,7 +36081,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -36207,7 +36110,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -36236,7 +36139,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -36265,7 +36168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -36294,7 +36197,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -36323,7 +36226,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -36352,7 +36255,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -36375,7 +36278,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -36384,7 +36287,7 @@
       <c r="F18" s="56"/>
       <c r="H18" s="49"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
@@ -36410,7 +36313,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>103</v>
       </c>
@@ -36433,7 +36336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>176</v>
       </c>
@@ -36453,7 +36356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>192</v>
       </c>
@@ -36476,7 +36379,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>194</v>
       </c>
@@ -36487,7 +36390,7 @@
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>195</v>
       </c>
@@ -36514,7 +36417,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>196</v>
       </c>
@@ -36539,7 +36442,7 @@
       </c>
       <c r="I26" s="73"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>197</v>
       </c>
@@ -36560,10 +36463,10 @@
       <c r="H27" s="59"/>
       <c r="I27" s="59"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>218</v>
       </c>
@@ -36608,7 +36511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:I19"/>
   <sheetViews>
@@ -36616,16 +36519,16 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="69.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41" t="s">
         <v>149</v>
       </c>
@@ -36645,7 +36548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -36665,7 +36568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -36685,7 +36588,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -36705,7 +36608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -36725,7 +36628,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H7" s="22" t="s">
         <v>127</v>
       </c>
@@ -36733,7 +36636,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="45"/>
@@ -36745,7 +36648,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H9" s="22" t="s">
         <v>146</v>
       </c>
@@ -36753,7 +36656,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H10" s="22" t="s">
         <v>186</v>
       </c>
@@ -36761,7 +36664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
         <v>129</v>
       </c>
@@ -36769,7 +36672,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
         <v>131</v>
       </c>
@@ -36777,7 +36680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H13" s="22" t="s">
         <v>133</v>
       </c>
@@ -36785,7 +36688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H14" s="22" t="s">
         <v>135</v>
       </c>
@@ -36793,7 +36696,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H15" s="42" t="s">
         <v>137</v>
       </c>
@@ -36801,7 +36704,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H16" s="43" t="s">
         <v>139</v>
       </c>
@@ -36809,7 +36712,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H17" s="42" t="s">
         <v>225</v>
       </c>
@@ -36817,7 +36720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18" s="42" t="s">
         <v>226</v>
       </c>
@@ -36825,7 +36728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H19" t="s">
         <v>227</v>
       </c>
@@ -36840,7 +36743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -36848,25 +36751,25 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="9" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="76" t="s">
         <v>79</v>
       </c>
@@ -36895,7 +36798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="29" t="s">
@@ -36938,7 +36841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -36946,7 +36849,7 @@
       <c r="L3" s="32"/>
       <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -36991,7 +36894,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
@@ -37024,7 +36927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -37057,7 +36960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
@@ -37096,7 +36999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
@@ -37114,7 +37017,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -37161,7 +37064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -37205,7 +37108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>1</v>
       </c>
@@ -37241,7 +37144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
@@ -37288,7 +37191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
@@ -37333,7 +37236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>81</v>
       </c>
@@ -37376,7 +37279,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>7</v>
       </c>
